--- a/testcase/1.xlsx
+++ b/testcase/1.xlsx
@@ -512,13 +512,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
